--- a/LAB_20200530_0_HandSignRecognition/LAB20200530_0.xlsx
+++ b/LAB_20200530_0_HandSignRecognition/LAB20200530_0.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_A826A1DB6009E6366731882D9D5336D22F8ADD1D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{163C20CD-0632-47C8-94CB-2CA169EF72A7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="1" r:id="rId1"/>
     <sheet name="活動流程" sheetId="2" r:id="rId2"/>
+    <sheet name="  分組報告議題" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>created this file</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,12 +31,115 @@
     <t>20200604_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>函式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#為什麼需要使用函示?
+#函式基本使用方式?
+#函示在"LAB_202005030__0_MultiThreads.py"中是拿來幹嘛?
+#"LAB_202005030__0_MultiThreads.py"函式的使用方式和一般教學看到使用方式有何不同?
+=&gt;函式是由callback方式啟動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#為什麼需要多執行敘(Threads)?
+#函式基本多執行敘使用方式
+#多執行敘在"LAB_202005030__0_MultiThreads.py"中是如何使用?
+#請說明何謂死結(deadlock)問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"mainLoop()"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串列,字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寫上參考資料來源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#何謂串列(List)
+#串列的用法
+#字典的用法
+#串列和字典在"LAB_202005030__0_MultiThreads.py"中的用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多執行敘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機器學習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameLoopDisplay()"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由活動中負責機器學習的A同學負責</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>報告主題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VideoLoop(),
+per_frame_function_DataGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#cv2.VideoCapture(0)的用途
+#video_detector替程式處理了什麼功能?輸入輸出為何?
+#為何videoloop沒有看看到迴圈?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#while的用法
+#if的用法
+#"mainLoop()"的功用為何?輸入和輸出是什麼?
+#"if"和"while"在"mainLoop()"的用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#cv2.imread()用法
+#cv2.imshow()用法
+#cv2在"LAB20200530_0中的用途. 輸入和輸出是什麼?
+#cv2除了imread和imshow外還有什麼功能?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200606_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增 "分組報告議題"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200607_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改 "分組報告議題"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +151,15 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -70,8 +184,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -101,7 +219,13 @@
     <xdr:ext cx="932756" cy="459485"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文字方塊 1"/>
+        <xdr:cNvPr id="2" name="文字方塊 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -165,7 +289,13 @@
     <xdr:ext cx="1669560" cy="459485"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="文字方塊 2"/>
+        <xdr:cNvPr id="3" name="文字方塊 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -233,7 +363,13 @@
     <xdr:ext cx="859402" cy="448136"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="文字方塊 3"/>
+        <xdr:cNvPr id="4" name="文字方塊 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -298,7 +434,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線單箭頭接點 5"/>
+        <xdr:cNvPr id="6" name="直線單箭頭接點 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -340,7 +482,13 @@
     <xdr:ext cx="1118511" cy="459485"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="文字方塊 6"/>
+        <xdr:cNvPr id="7" name="文字方塊 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -421,7 +569,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線單箭頭接點 8"/>
+        <xdr:cNvPr id="9" name="直線單箭頭接點 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -463,7 +617,13 @@
     <xdr:ext cx="2582758" cy="459485"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="文字方塊 11"/>
+        <xdr:cNvPr id="12" name="文字方塊 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -539,7 +699,13 @@
     <xdr:ext cx="748923" cy="275909"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="文字方塊 13"/>
+        <xdr:cNvPr id="14" name="文字方塊 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -591,7 +757,13 @@
     <xdr:ext cx="548420" cy="275909"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="文字方塊 14"/>
+        <xdr:cNvPr id="15" name="文字方塊 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -648,7 +820,13 @@
     <xdr:ext cx="1313180" cy="459485"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="文字方塊 15"/>
+        <xdr:cNvPr id="16" name="文字方塊 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -712,7 +890,13 @@
     <xdr:ext cx="1810624" cy="459485"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="文字方塊 16"/>
+        <xdr:cNvPr id="17" name="文字方塊 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -793,7 +977,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線單箭頭接點 17"/>
+        <xdr:cNvPr id="18" name="直線單箭頭接點 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -835,7 +1025,13 @@
     <xdr:ext cx="1118511" cy="459485"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="文字方塊 20"/>
+        <xdr:cNvPr id="21" name="文字方塊 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -919,7 +1115,13 @@
     <xdr:ext cx="1620252" cy="459485"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="文字方塊 22"/>
+        <xdr:cNvPr id="23" name="文字方塊 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1008,7 +1210,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線單箭頭接點 23"/>
+        <xdr:cNvPr id="24" name="直線單箭頭接點 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1050,7 +1258,13 @@
     <xdr:ext cx="2582758" cy="459485"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="文字方塊 25"/>
+        <xdr:cNvPr id="26" name="文字方塊 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1126,7 +1340,13 @@
     <xdr:ext cx="1313180" cy="459485"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="文字方塊 30"/>
+        <xdr:cNvPr id="31" name="文字方塊 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1201,7 +1421,13 @@
     <xdr:ext cx="1420774" cy="459485"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="文字方塊 31"/>
+        <xdr:cNvPr id="32" name="文字方塊 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1281,7 +1507,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線單箭頭接點 33"/>
+        <xdr:cNvPr id="34" name="直線單箭頭接點 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1323,7 +1555,13 @@
     <xdr:ext cx="748923" cy="275909"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="文字方塊 37"/>
+        <xdr:cNvPr id="38" name="文字方塊 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1376,7 +1614,13 @@
     <xdr:ext cx="1313180" cy="459485"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="文字方塊 42"/>
+        <xdr:cNvPr id="43" name="文字方塊 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1456,7 +1700,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線單箭頭接點 43"/>
+        <xdr:cNvPr id="44" name="直線單箭頭接點 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1498,7 +1748,13 @@
     <xdr:ext cx="1172116" cy="275909"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="文字方塊 47"/>
+        <xdr:cNvPr id="48" name="文字方塊 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1556,7 +1812,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直線單箭頭接點 48"/>
+        <xdr:cNvPr id="49" name="直線單箭頭接點 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1598,7 +1860,13 @@
     <xdr:ext cx="1172116" cy="459485"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="文字方塊 50"/>
+        <xdr:cNvPr id="51" name="文字方塊 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1658,7 +1926,13 @@
     <xdr:ext cx="1669560" cy="459485"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="文字方塊 60"/>
+        <xdr:cNvPr id="61" name="文字方塊 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1726,7 +2000,13 @@
     <xdr:ext cx="805605" cy="459485"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="文字方塊 61"/>
+        <xdr:cNvPr id="62" name="文字方塊 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1794,7 +2074,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="直線單箭頭接點 62"/>
+        <xdr:cNvPr id="63" name="直線單箭頭接點 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1841,7 +2127,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="直線單箭頭接點 64"/>
+        <xdr:cNvPr id="65" name="直線單箭頭接點 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1883,7 +2175,13 @@
     <xdr:ext cx="1296509" cy="275909"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="文字方塊 66"/>
+        <xdr:cNvPr id="67" name="文字方塊 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1940,7 +2238,13 @@
     <xdr:ext cx="1174424" cy="459485"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="文字方塊 67"/>
+        <xdr:cNvPr id="68" name="文字方塊 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2011,7 +2315,13 @@
     <xdr:ext cx="889987" cy="459485"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="文字方塊 68"/>
+        <xdr:cNvPr id="69" name="文字方塊 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2070,7 +2380,13 @@
     <xdr:ext cx="1214884" cy="459485"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="文字方塊 69"/>
+        <xdr:cNvPr id="70" name="文字方塊 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2138,7 +2454,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="直線單箭頭接點 70"/>
+        <xdr:cNvPr id="71" name="直線單箭頭接點 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2180,7 +2502,13 @@
     <xdr:ext cx="889987" cy="459485"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="文字方塊 73"/>
+        <xdr:cNvPr id="74" name="文字方塊 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2245,7 +2573,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="直線接點 75"/>
+        <xdr:cNvPr id="76" name="直線接點 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2289,7 +2623,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="直線接點 77"/>
+        <xdr:cNvPr id="78" name="直線接點 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2333,7 +2673,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="直線接點 78"/>
+        <xdr:cNvPr id="79" name="直線接點 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2377,7 +2723,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="直線接點 79"/>
+        <xdr:cNvPr id="80" name="直線接點 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2421,7 +2773,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="直線接點 81"/>
+        <xdr:cNvPr id="82" name="直線接點 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2715,24 +3073,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2743,17 +3118,116 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC808BE-ED03-4C31-AADE-FC38C8E3601F}">
+  <dimension ref="A2:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="91.375" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LAB_20200530_0_HandSignRecognition/LAB20200530_0.xlsx
+++ b/LAB_20200530_0_HandSignRecognition/LAB20200530_0.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_A826A1DB6009E6366731882D9D5336D22F8ADD1D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{163C20CD-0632-47C8-94CB-2CA169EF72A7}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="11_A826A1DB6009E6366731882D9D5336D22F8ADD1D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1B1B0C8D-5E60-48A2-83E3-9AB3273C9D84}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="276" yWindow="576" windowWidth="13080" windowHeight="11784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="1" r:id="rId1"/>
     <sheet name="活動流程" sheetId="2" r:id="rId2"/>
     <sheet name="  分組報告議題" sheetId="3" r:id="rId3"/>
+    <sheet name="TroubleShooting" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>created this file</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +135,26 @@
     <t>修改 "分組報告議題"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>value error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訓練時,發生value error. "xxx" not in the list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樣本製作時有,有標籤打錯,例如布有些是"paper","papper"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200707_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增 "TroubleShooting"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -360,7 +381,7 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="859402" cy="448136"/>
+    <xdr:ext cx="785280" cy="448136"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="文字方塊 3">
@@ -374,8 +395,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4391025" y="3897086"/>
-          <a:ext cx="859402" cy="448136"/>
+          <a:off x="3932704" y="3595968"/>
+          <a:ext cx="785280" cy="448136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -411,7 +432,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>(Labelming)</a:t>
+            <a:t>(Labelimg)</a:t>
           </a:r>
           <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
         </a:p>
@@ -3074,10 +3095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3110,6 +3131,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3121,15 +3150,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3137,7 +3167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC808BE-ED03-4C31-AADE-FC38C8E3601F}">
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -3230,4 +3260,37 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50A8412-2C82-4BF5-8CEC-7A198188E8B7}">
+  <dimension ref="A3:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="50.5" customWidth="1"/>
+    <col min="3" max="3" width="64.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/LAB_20200530_0_HandSignRecognition/LAB20200530_0.xlsx
+++ b/LAB_20200530_0_HandSignRecognition/LAB20200530_0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="84" documentId="11_A826A1DB6009E6366731882D9D5336D22F8ADD1D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1B1B0C8D-5E60-48A2-83E3-9AB3273C9D84}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="276" yWindow="576" windowWidth="13080" windowHeight="11784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="1" r:id="rId1"/>
@@ -3150,8 +3150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3167,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC808BE-ED03-4C31-AADE-FC38C8E3601F}">
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
